--- a/results/Test05.xlsx
+++ b/results/Test05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="Optimistic_distinct" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Writelock-wait</t>
-  </si>
-  <si>
-    <t>Readlock-Aquired</t>
-  </si>
-  <si>
-    <t>Writelock-Aquired</t>
   </si>
   <si>
     <t>Readlock-Failed</t>
@@ -1042,12 +1036,6 @@
     <t>Writelock_Wait_Ratio</t>
   </si>
   <si>
-    <t>Readlock_Aquired_Ratio</t>
-  </si>
-  <si>
-    <t>Writelock_Aquired_Ratio</t>
-  </si>
-  <si>
     <t>Read_Regular_Latency</t>
   </si>
   <si>
@@ -1064,6 +1052,18 @@
   </si>
   <si>
     <t>Optimistic_Throughput</t>
+  </si>
+  <si>
+    <t>Readlock-Acquired</t>
+  </si>
+  <si>
+    <t>Writelock-Acquired</t>
+  </si>
+  <si>
+    <t>Readlock_Acquired_Ratio</t>
+  </si>
+  <si>
+    <t>Writelock_Acquired_Ratio</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1112,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1122,11 +1126,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1459,10 +1467,13 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -1493,30 +1504,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1566,7 +1577,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1616,7 +1627,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1666,7 +1677,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1716,7 +1727,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1766,7 +1777,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1816,7 +1827,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1866,7 +1877,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1916,7 +1927,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1966,7 +1977,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2016,7 +2027,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2066,7 +2077,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2116,7 +2127,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2166,7 +2177,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2216,7 +2227,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -2266,7 +2277,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -2316,7 +2327,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2366,7 +2377,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2416,7 +2427,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2466,7 +2477,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2516,7 +2527,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2566,7 +2577,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -2616,7 +2627,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -2666,7 +2677,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -2716,7 +2727,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -2766,7 +2777,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -2816,7 +2827,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2866,7 +2877,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2916,7 +2927,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -2966,7 +2977,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -3016,7 +3027,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -3066,7 +3077,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -3116,7 +3127,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -3166,7 +3177,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -3216,7 +3227,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -3266,7 +3277,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -3316,7 +3327,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -3366,7 +3377,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -3416,7 +3427,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -3466,7 +3477,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -3516,7 +3527,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -3566,7 +3577,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3616,7 +3627,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -3666,7 +3677,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -3766,7 +3777,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -3816,7 +3827,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -3866,7 +3877,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -3916,7 +3927,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -3966,7 +3977,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -4016,7 +4027,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -4066,7 +4077,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -4116,7 +4127,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -4166,7 +4177,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -4216,7 +4227,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -4266,7 +4277,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -4316,7 +4327,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -4366,7 +4377,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -4416,7 +4427,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -4466,7 +4477,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -4516,7 +4527,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -4566,7 +4577,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -4616,7 +4627,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -4666,7 +4677,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -4716,7 +4727,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -4766,7 +4777,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -4816,7 +4827,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -4866,7 +4877,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -4916,7 +4927,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -4966,7 +4977,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -5016,7 +5027,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -5066,7 +5077,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -5116,7 +5127,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -5166,7 +5177,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -5216,7 +5227,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -5266,7 +5277,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -5316,7 +5327,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -5366,7 +5377,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -5416,7 +5427,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -5466,7 +5477,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -5516,7 +5527,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -5566,7 +5577,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -5616,7 +5627,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -5666,7 +5677,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -5716,7 +5727,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -5766,7 +5777,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -5816,7 +5827,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -5866,7 +5877,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -5916,7 +5927,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -5966,7 +5977,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -6016,7 +6027,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -6066,7 +6077,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -6116,7 +6127,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -6166,7 +6177,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -6216,7 +6227,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -6266,7 +6277,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -6316,7 +6327,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -6366,7 +6377,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -6416,7 +6427,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -6466,7 +6477,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -6516,7 +6527,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -6566,7 +6577,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -6616,7 +6627,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -6666,7 +6677,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -6716,7 +6727,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -6766,7 +6777,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -6816,7 +6827,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -6866,7 +6877,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -6916,7 +6927,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -6966,7 +6977,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -7016,7 +7027,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -7066,7 +7077,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -7116,7 +7127,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -7166,7 +7177,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -7216,7 +7227,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -7266,7 +7277,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -7316,7 +7327,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -7366,7 +7377,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -7416,7 +7427,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -7466,7 +7477,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -7516,7 +7527,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -7566,7 +7577,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -7616,7 +7627,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -7666,7 +7677,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -7716,7 +7727,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -7766,7 +7777,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -7828,7 +7839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -7861,30 +7874,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7934,7 +7947,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7984,7 +7997,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8034,7 +8047,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8084,7 +8097,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -8134,7 +8147,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -8184,7 +8197,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -8234,7 +8247,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -8284,7 +8297,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -8334,7 +8347,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -8384,7 +8397,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -8434,7 +8447,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -8484,7 +8497,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -8534,7 +8547,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -8584,7 +8597,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -8634,7 +8647,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8684,7 +8697,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -8734,7 +8747,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -8784,7 +8797,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -8834,7 +8847,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -8884,7 +8897,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -8934,7 +8947,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -8984,7 +8997,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -9034,7 +9047,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -9084,7 +9097,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -9134,7 +9147,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27">
         <v>16</v>
@@ -9184,7 +9197,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -9234,7 +9247,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -9284,7 +9297,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -9334,7 +9347,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -9384,7 +9397,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -9434,7 +9447,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -9484,7 +9497,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -9534,7 +9547,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -9584,7 +9597,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -9634,7 +9647,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -9684,7 +9697,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -9734,7 +9747,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -9784,7 +9797,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -9834,7 +9847,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>32</v>
@@ -9884,7 +9897,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -9934,7 +9947,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -9984,7 +9997,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -10034,7 +10047,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -10084,7 +10097,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -10134,7 +10147,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -10184,7 +10197,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>32</v>
@@ -10234,7 +10247,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -10284,7 +10297,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -10334,7 +10347,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B51">
         <v>32</v>
@@ -10384,7 +10397,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -10434,7 +10447,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -10484,7 +10497,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -10534,7 +10547,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B55">
         <v>32</v>
@@ -10584,7 +10597,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B56">
         <v>32</v>
@@ -10634,7 +10647,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57">
         <v>32</v>
@@ -10684,7 +10697,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -10734,7 +10747,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <v>32</v>
@@ -10784,7 +10797,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -10834,7 +10847,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>32</v>
@@ -10884,7 +10897,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -10934,7 +10947,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -10984,7 +10997,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -11046,7 +11059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -11079,30 +11094,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11152,7 +11167,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11202,7 +11217,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -11252,7 +11267,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11302,7 +11317,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -11352,7 +11367,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -11402,7 +11417,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -11452,7 +11467,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -11502,7 +11517,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -11552,7 +11567,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -11602,7 +11617,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -11652,7 +11667,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -11702,7 +11717,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -11752,7 +11767,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -11802,7 +11817,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -11852,7 +11867,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -11902,7 +11917,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11952,7 +11967,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -12002,7 +12017,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -12052,7 +12067,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -12102,7 +12117,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -12152,7 +12167,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -12202,7 +12217,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -12252,7 +12267,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -12302,7 +12317,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -12352,7 +12367,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -12402,7 +12417,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -12452,7 +12467,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -12502,7 +12517,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -12552,7 +12567,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -12602,7 +12617,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -12652,7 +12667,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -12702,7 +12717,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -12752,7 +12767,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -12802,7 +12817,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -12852,7 +12867,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -12902,7 +12917,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -12952,7 +12967,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -13002,7 +13017,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -13052,7 +13067,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -13102,7 +13117,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -13152,7 +13167,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -13202,7 +13217,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -13252,7 +13267,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -13302,7 +13317,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -13352,7 +13367,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -13402,7 +13417,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -13452,7 +13467,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -13502,7 +13517,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -13552,7 +13567,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -13602,7 +13617,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -13652,7 +13667,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -13702,7 +13717,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -13752,7 +13767,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -13802,7 +13817,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -13852,7 +13867,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -13902,7 +13917,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -13952,7 +13967,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -14002,7 +14017,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -14052,7 +14067,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -14102,7 +14117,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -14152,7 +14167,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -14202,7 +14217,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -14252,7 +14267,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -14302,7 +14317,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -14352,7 +14367,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -14402,7 +14417,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -14452,7 +14467,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -14502,7 +14517,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -14552,7 +14567,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -14602,7 +14617,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -14652,7 +14667,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -14702,7 +14717,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -14752,7 +14767,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -14802,7 +14817,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -14852,7 +14867,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -14902,7 +14917,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -14952,7 +14967,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -15002,7 +15017,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -15052,7 +15067,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -15102,7 +15117,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -15152,7 +15167,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -15202,7 +15217,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -15252,7 +15267,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -15302,7 +15317,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -15352,7 +15367,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -15402,7 +15417,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -15452,7 +15467,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -15502,7 +15517,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -15552,7 +15567,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -15602,7 +15617,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -15652,7 +15667,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -15702,7 +15717,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -15752,7 +15767,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -15802,7 +15817,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -15852,7 +15867,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -15902,7 +15917,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -15952,7 +15967,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -16002,7 +16017,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -16052,7 +16067,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -16102,7 +16117,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -16152,7 +16167,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -16202,7 +16217,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -16252,7 +16267,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -16302,7 +16317,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -16352,7 +16367,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -16402,7 +16417,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -16452,7 +16467,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -16502,7 +16517,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -16552,7 +16567,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -16602,7 +16617,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -16652,7 +16667,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -16702,7 +16717,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -16752,7 +16767,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -16802,7 +16817,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -16852,7 +16867,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -16902,7 +16917,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -16952,7 +16967,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -17002,7 +17017,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -17052,7 +17067,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -17102,7 +17117,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -17152,7 +17167,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -17202,7 +17217,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -17252,7 +17267,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -17302,7 +17317,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -17352,7 +17367,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -17415,7 +17430,7 @@
   <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17449,30 +17464,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17522,7 +17537,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -17572,7 +17587,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -17622,7 +17637,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -17672,7 +17687,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -17722,7 +17737,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -17772,7 +17787,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -17822,7 +17837,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -17872,7 +17887,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -17922,7 +17937,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -17972,7 +17987,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -18022,7 +18037,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -18072,7 +18087,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -18122,7 +18137,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -18172,7 +18187,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -18222,7 +18237,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -18272,7 +18287,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -18322,7 +18337,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -18372,7 +18387,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -18422,7 +18437,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -18472,7 +18487,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -18522,7 +18537,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -18572,7 +18587,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -18622,7 +18637,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -18672,7 +18687,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -18722,7 +18737,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -18772,7 +18787,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -18822,7 +18837,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -18872,7 +18887,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -18922,7 +18937,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -18972,7 +18987,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -19022,7 +19037,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -19072,7 +19087,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -19122,7 +19137,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -19172,7 +19187,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -19222,7 +19237,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -19272,7 +19287,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -19322,7 +19337,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -19372,7 +19387,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -19422,7 +19437,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -19472,7 +19487,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -19522,7 +19537,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -19572,7 +19587,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -19622,7 +19637,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -19672,7 +19687,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -19722,7 +19737,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -19772,7 +19787,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -19822,7 +19837,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -19872,7 +19887,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -19922,7 +19937,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -19972,7 +19987,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -20022,7 +20037,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -20072,7 +20087,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -20122,7 +20137,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -20172,7 +20187,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -20222,7 +20237,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -20272,7 +20287,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -20322,7 +20337,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -20372,7 +20387,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -20422,7 +20437,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -20472,7 +20487,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -20522,7 +20537,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -20572,7 +20587,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -20622,7 +20637,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -20672,7 +20687,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -20722,7 +20737,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -20772,7 +20787,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -20822,7 +20837,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -20872,7 +20887,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -20922,7 +20937,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -20972,7 +20987,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -21022,7 +21037,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -21072,7 +21087,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -21122,7 +21137,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -21172,7 +21187,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -21222,7 +21237,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -21272,7 +21287,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -21322,7 +21337,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -21372,7 +21387,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -21422,7 +21437,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -21472,7 +21487,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -21522,7 +21537,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -21572,7 +21587,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -21622,7 +21637,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -21672,7 +21687,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -21722,7 +21737,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -21772,7 +21787,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -21822,7 +21837,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -21872,7 +21887,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -21922,7 +21937,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -21972,7 +21987,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -22022,7 +22037,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -22072,7 +22087,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -22122,7 +22137,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -22172,7 +22187,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -22222,7 +22237,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -22272,7 +22287,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -22322,7 +22337,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -22372,7 +22387,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -22422,7 +22437,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -22472,7 +22487,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -22522,7 +22537,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -22572,7 +22587,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -22622,7 +22637,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -22672,7 +22687,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -22722,7 +22737,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -22772,7 +22787,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -22822,7 +22837,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -22872,7 +22887,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -22922,7 +22937,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -22972,7 +22987,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -23022,7 +23037,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -23072,7 +23087,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -23122,7 +23137,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -23172,7 +23187,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -23222,7 +23237,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -23272,7 +23287,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -23322,7 +23337,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -23372,7 +23387,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -23422,7 +23437,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -23472,7 +23487,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -23522,7 +23537,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -23572,7 +23587,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -23622,7 +23637,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -23672,7 +23687,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -23722,7 +23737,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -23784,9 +23799,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -23817,30 +23838,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -23890,7 +23911,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -23940,7 +23961,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -23990,7 +24011,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -24040,7 +24061,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -24090,7 +24111,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -24140,7 +24161,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -24190,7 +24211,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -24240,7 +24261,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -24290,7 +24311,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -24340,7 +24361,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -24390,7 +24411,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -24440,7 +24461,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -24490,7 +24511,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -24540,7 +24561,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -24590,7 +24611,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -24640,7 +24661,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -24690,7 +24711,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -24740,7 +24761,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -24790,7 +24811,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -24840,7 +24861,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -24890,7 +24911,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -24940,7 +24961,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -24990,7 +25011,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -25040,7 +25061,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -25090,7 +25111,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27">
         <v>16</v>
@@ -25140,7 +25161,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -25190,7 +25211,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -25240,7 +25261,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -25290,7 +25311,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -25340,7 +25361,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -25390,7 +25411,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -25440,7 +25461,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -25490,7 +25511,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -25540,7 +25561,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36">
         <v>32</v>
@@ -25590,7 +25611,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -25640,7 +25661,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -25690,7 +25711,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -25740,7 +25761,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -25790,7 +25811,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>32</v>
@@ -25840,7 +25861,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -25890,7 +25911,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -25940,7 +25961,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -25990,7 +26011,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -26040,7 +26061,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -26090,7 +26111,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -26140,7 +26161,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>32</v>
@@ -26190,7 +26211,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -26240,7 +26261,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -26290,7 +26311,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B51">
         <v>32</v>
@@ -26340,7 +26361,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B52">
         <v>32</v>
@@ -26390,7 +26411,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -26440,7 +26461,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -26490,7 +26511,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B55">
         <v>32</v>
@@ -26540,7 +26561,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B56">
         <v>32</v>
@@ -26590,7 +26611,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57">
         <v>32</v>
@@ -26640,7 +26661,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -26690,7 +26711,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <v>32</v>
@@ -26740,7 +26761,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -26790,7 +26811,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>32</v>
@@ -26840,7 +26861,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -26890,7 +26911,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -26940,7 +26961,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -26990,6 +27011,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27002,7 +27024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -27035,30 +27059,30 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -27108,7 +27132,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -27158,7 +27182,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -27208,7 +27232,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -27258,7 +27282,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -27308,7 +27332,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -27358,7 +27382,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -27408,7 +27432,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -27458,7 +27482,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -27508,7 +27532,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -27558,7 +27582,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -27608,7 +27632,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -27658,7 +27682,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -27708,7 +27732,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -27758,7 +27782,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -27808,7 +27832,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -27858,7 +27882,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -27908,7 +27932,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -27958,7 +27982,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -28008,7 +28032,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -28058,7 +28082,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -28108,7 +28132,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -28158,7 +28182,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -28208,7 +28232,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -28258,7 +28282,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -28308,7 +28332,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -28358,7 +28382,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -28408,7 +28432,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -28458,7 +28482,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -28508,7 +28532,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -28558,7 +28582,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -28608,7 +28632,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -28658,7 +28682,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -28708,7 +28732,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -28758,7 +28782,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -28808,7 +28832,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -28858,7 +28882,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -28908,7 +28932,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -28958,7 +28982,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -29008,7 +29032,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -29058,7 +29082,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -29108,7 +29132,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -29158,7 +29182,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B44">
         <v>16</v>
@@ -29208,7 +29232,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -29258,7 +29282,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -29308,7 +29332,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -29358,7 +29382,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B48">
         <v>16</v>
@@ -29408,7 +29432,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -29458,7 +29482,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B50">
         <v>16</v>
@@ -29508,7 +29532,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -29558,7 +29582,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -29608,7 +29632,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -29658,7 +29682,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -29708,7 +29732,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55">
         <v>16</v>
@@ -29758,7 +29782,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -29808,7 +29832,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -29858,7 +29882,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -29908,7 +29932,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B59">
         <v>16</v>
@@ -29958,7 +29982,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -30008,7 +30032,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B61">
         <v>16</v>
@@ -30058,7 +30082,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B62">
         <v>16</v>
@@ -30108,7 +30132,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -30158,7 +30182,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -30208,7 +30232,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -30258,7 +30282,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -30308,7 +30332,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -30358,7 +30382,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -30408,7 +30432,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -30458,7 +30482,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -30508,7 +30532,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -30558,7 +30582,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -30608,7 +30632,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -30658,7 +30682,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B74">
         <v>32</v>
@@ -30708,7 +30732,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B75">
         <v>32</v>
@@ -30758,7 +30782,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B76">
         <v>32</v>
@@ -30808,7 +30832,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B77">
         <v>32</v>
@@ -30858,7 +30882,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B78">
         <v>32</v>
@@ -30908,7 +30932,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -30958,7 +30982,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -31008,7 +31032,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B81">
         <v>32</v>
@@ -31058,7 +31082,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B82">
         <v>32</v>
@@ -31108,7 +31132,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B83">
         <v>32</v>
@@ -31158,7 +31182,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -31208,7 +31232,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B85">
         <v>32</v>
@@ -31258,7 +31282,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B86">
         <v>32</v>
@@ -31308,7 +31332,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -31358,7 +31382,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88">
         <v>32</v>
@@ -31408,7 +31432,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B89">
         <v>32</v>
@@ -31458,7 +31482,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -31508,7 +31532,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -31558,7 +31582,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -31608,7 +31632,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -31658,7 +31682,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -31708,7 +31732,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B95">
         <v>32</v>
@@ -31758,7 +31782,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96">
         <v>32</v>
@@ -31808,7 +31832,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B97">
         <v>32</v>
@@ -31858,7 +31882,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -31908,7 +31932,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -31958,7 +31982,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -32008,7 +32032,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B101">
         <v>32</v>
@@ -32058,7 +32082,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B102">
         <v>32</v>
@@ -32108,7 +32132,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B103">
         <v>32</v>
@@ -32158,7 +32182,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B104">
         <v>32</v>
@@ -32208,7 +32232,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B105">
         <v>32</v>
@@ -32258,7 +32282,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B106">
         <v>32</v>
@@ -32308,7 +32332,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B107">
         <v>32</v>
@@ -32358,7 +32382,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B108">
         <v>32</v>
@@ -32408,7 +32432,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B109">
         <v>32</v>
@@ -32458,7 +32482,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B110">
         <v>32</v>
@@ -32508,7 +32532,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -32558,7 +32582,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -32608,7 +32632,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B113">
         <v>32</v>
@@ -32658,7 +32682,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B114">
         <v>32</v>
@@ -32708,7 +32732,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B115">
         <v>32</v>
@@ -32758,7 +32782,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -32808,7 +32832,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B117">
         <v>32</v>
@@ -32858,7 +32882,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B118">
         <v>32</v>
@@ -32908,7 +32932,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -32958,7 +32982,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -33008,7 +33032,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B121">
         <v>32</v>
@@ -33058,7 +33082,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B122">
         <v>32</v>
@@ -33108,7 +33132,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B123">
         <v>32</v>
@@ -33158,7 +33182,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B124">
         <v>32</v>
@@ -33208,7 +33232,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B125">
         <v>32</v>
@@ -33258,7 +33282,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -33308,7 +33332,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B127">
         <v>32</v>
@@ -33378,12 +33402,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2">
         <v>752495240</v>
@@ -33391,7 +33415,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C3">
         <v>1401775</v>
@@ -33399,12 +33423,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6">
         <v>177999203</v>
@@ -33412,7 +33436,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>612220</v>
@@ -33420,12 +33444,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C10">
         <v>118813760</v>
@@ -33433,7 +33457,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C11">
         <v>11881376</v>
@@ -33472,34 +33496,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
         <v>336</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>338</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>339</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>341</v>
-      </c>
-      <c r="G1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:10">
